--- a/old_docs/text_recipe_file - 10 min flip.xlsx
+++ b/old_docs/text_recipe_file - 10 min flip.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\old_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B67D2-D4A5-4DEE-8C78-875FD76FC079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D676C4-EA37-4CB0-AEF4-AC53740D8220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="18">
   <si>
     <t>Pump 1</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>CCW</t>
+  </si>
+  <si>
+    <t>Pump 6</t>
+  </si>
+  <si>
+    <t>Pump 7</t>
+  </si>
+  <si>
+    <t>Pump 8</t>
+  </si>
+  <si>
+    <t>Valve 6</t>
+  </si>
+  <si>
+    <t>Valve 7</t>
+  </si>
+  <si>
+    <t>Valve 8</t>
   </si>
 </sst>
 </file>
@@ -381,21 +399,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -409,19 +427,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -435,19 +471,37 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.2</v>
       </c>
@@ -461,19 +515,37 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -487,19 +559,37 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.6</v>
       </c>
@@ -513,19 +603,37 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -539,19 +647,37 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -565,19 +691,37 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.2</v>
       </c>
@@ -591,19 +735,37 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.4</v>
       </c>
@@ -617,19 +779,37 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6</v>
       </c>
@@ -643,19 +823,37 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.8</v>
       </c>
@@ -669,19 +867,37 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -695,19 +911,37 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.2000000000000002</v>
       </c>
@@ -721,19 +955,37 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.4</v>
       </c>
@@ -747,19 +999,37 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.6</v>
       </c>
@@ -773,19 +1043,37 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.8</v>
       </c>
@@ -799,19 +1087,37 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -825,19 +1131,37 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.2</v>
       </c>
@@ -851,19 +1175,37 @@
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.4</v>
       </c>
@@ -877,19 +1219,37 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.6</v>
       </c>
@@ -903,19 +1263,37 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.8</v>
       </c>
@@ -929,19 +1307,37 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -955,19 +1351,37 @@
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -981,19 +1395,37 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1007,19 +1439,37 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4.5999999999999996</v>
       </c>
@@ -1033,19 +1483,37 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4.8</v>
       </c>
@@ -1059,19 +1527,37 @@
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -1085,19 +1571,37 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5.2</v>
       </c>
@@ -1111,19 +1615,37 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5.4</v>
       </c>
@@ -1137,19 +1659,37 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5.6</v>
       </c>
@@ -1163,19 +1703,37 @@
         <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5.8</v>
       </c>
@@ -1189,19 +1747,37 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M31" t="s">
+        <v>11</v>
+      </c>
+      <c r="N31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -1215,19 +1791,37 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.2</v>
       </c>
@@ -1241,19 +1835,37 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.4</v>
       </c>
@@ -1267,19 +1879,37 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+      <c r="L34" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.6</v>
       </c>
@@ -1293,19 +1923,37 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.8</v>
       </c>
@@ -1319,19 +1967,37 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7</v>
       </c>
@@ -1345,19 +2011,37 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+      <c r="M37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.2</v>
       </c>
@@ -1371,19 +2055,37 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.4</v>
       </c>
@@ -1397,19 +2099,37 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>7.6</v>
       </c>
@@ -1423,19 +2143,37 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" t="s">
+        <v>7</v>
+      </c>
+      <c r="L40" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>7.8</v>
       </c>
@@ -1449,19 +2187,37 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1475,19 +2231,37 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" t="s">
+        <v>7</v>
+      </c>
+      <c r="K42" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8.1999999999999993</v>
       </c>
@@ -1501,19 +2275,37 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8.4</v>
       </c>
@@ -1527,19 +2319,37 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" t="s">
+        <v>7</v>
+      </c>
+      <c r="K44" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8.6</v>
       </c>
@@ -1553,19 +2363,37 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+      <c r="M45" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8.8000000000000007</v>
       </c>
@@ -1579,19 +2407,37 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" t="s">
+        <v>7</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -1605,19 +2451,37 @@
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+      <c r="M47" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>9.1999999999999993</v>
       </c>
@@ -1631,19 +2495,37 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" t="s">
+        <v>7</v>
+      </c>
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+      <c r="L48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9.4</v>
       </c>
@@ -1657,19 +2539,37 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9.6</v>
       </c>
@@ -1683,19 +2583,37 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" t="s">
+        <v>7</v>
+      </c>
+      <c r="K50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9.8000000000000007</v>
       </c>
@@ -1709,19 +2627,37 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+      <c r="M51" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
@@ -1735,19 +2671,37 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K52" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N52">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10.199999999999999</v>
       </c>
@@ -1761,15 +2715,33 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+      <c r="M53" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53">
         <v>52</v>
       </c>
     </row>
